--- a/sql/planning_school.xlsx
+++ b/sql/planning_school.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
   <si>
     <t>规划校名称</t>
   </si>
@@ -191,7 +191,7 @@
     <t>校园网域名</t>
   </si>
   <si>
-    <t>太阳小学31</t>
+    <t>太阳小学3144</t>
   </si>
   <si>
     <t>TS23233</t>
@@ -324,9 +324,6 @@
   </si>
   <si>
     <t>WW.CC</t>
-  </si>
-  <si>
-    <t>太阳小学32</t>
   </si>
 </sst>
 </file>
@@ -1492,13 +1489,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BB3"/>
+  <dimension ref="A1:BB2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="10" max="10" width="11.5"/>
     <col min="17" max="17" width="11.5"/>
@@ -1833,170 +1830,6 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:54">
-      <c r="A3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3" t="s">
-        <v>66</v>
-      </c>
-      <c r="P3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="R3" t="s">
-        <v>69</v>
-      </c>
-      <c r="S3" t="s">
-        <v>58</v>
-      </c>
-      <c r="T3" t="s">
-        <v>59</v>
-      </c>
-      <c r="U3" t="s">
-        <v>60</v>
-      </c>
-      <c r="V3" t="s">
-        <v>70</v>
-      </c>
-      <c r="W3" t="s">
-        <v>71</v>
-      </c>
-      <c r="X3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AM3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP3" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>96</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>98</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
